--- a/db_feed/v6_example_blend.xlsx
+++ b/db_feed/v6_example_blend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC5C5C-0402-4050-B3D3-F4421F9433CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623EDF10-50D0-443F-AD91-707082646182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="870" windowWidth="25365" windowHeight="14535" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="2265" yWindow="840" windowWidth="25365" windowHeight="14535" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="420">
   <si>
     <t>UNIT</t>
   </si>
@@ -1475,6 +1475,9 @@
   </si>
   <si>
     <t>S1234</t>
+  </si>
+  <si>
+    <t>Inside Glove Box</t>
   </si>
 </sst>
 </file>
@@ -4107,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5933,9 +5936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6172,7 +6175,9 @@
       <c r="A15" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="46">
+        <v>25</v>
+      </c>
       <c r="C15" s="41" t="s">
         <v>13</v>
       </c>
@@ -6192,7 +6197,9 @@
       <c r="A16" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="46">
+        <v>24</v>
+      </c>
       <c r="C16" s="41" t="s">
         <v>362</v>
       </c>
@@ -6210,7 +6217,9 @@
       <c r="A17" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="47" t="s">
+        <v>419</v>
+      </c>
       <c r="C17" s="77"/>
       <c r="D17" s="68" t="s">
         <v>227</v>
